--- a/src/assets/file/upload_user.xlsx
+++ b/src/assets/file/upload_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13980" windowHeight="7164"/>
+    <workbookView windowWidth="16368" windowHeight="7835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>UserCode</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>groupName</t>
+  </si>
+  <si>
     <t>BIT220001</t>
   </si>
   <si>
@@ -54,6 +57,18 @@
   </si>
   <si>
     <t>Thí sinh</t>
+  </si>
+  <si>
+    <t>22IT1</t>
+  </si>
+  <si>
+    <t>BIT220002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Thúy</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
 </sst>
 </file>
@@ -1006,20 +1021,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="4" max="4" width="13.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,22 +1050,48 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>38101</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>38038</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
